--- a/ExcelFiles/RolesInfo.xlsx
+++ b/ExcelFiles/RolesInfo.xlsx
@@ -76,7 +76,7 @@
     <t>比安卡</t>
   </si>
   <si>
-    <t>真理</t>
+    <t>小小真理</t>
   </si>
   <si>
     <t>select_zhenli_gong</t>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>

--- a/ExcelFiles/RolesInfo.xlsx
+++ b/ExcelFiles/RolesInfo.xlsx
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>

--- a/ExcelFiles/RolesInfo.xlsx
+++ b/ExcelFiles/RolesInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8580"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>int</t>
   </si>
@@ -46,6 +46,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>name_en</t>
+  </si>
+  <si>
     <t>modelName</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>露西亚</t>
   </si>
   <si>
+    <t>alpha</t>
+  </si>
+  <si>
     <t>深红之渊</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t>比安卡</t>
+  </si>
+  <si>
+    <t>bianka</t>
   </si>
   <si>
     <t>小小真理</t>
@@ -1050,22 +1059,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" customWidth="1"/>
-    <col min="6" max="7" width="36.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="18.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="20.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="8" width="36.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1087,8 +1096,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1110,45 +1122,54 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="b">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="b">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/RolesInfo.xlsx
+++ b/ExcelFiles/RolesInfo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>int</t>
   </si>
@@ -40,6 +40,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -64,7 +67,31 @@
     <t>roleDescribe</t>
   </si>
   <si>
-    <t>露西亚</t>
+    <t>attackValue</t>
+  </si>
+  <si>
+    <t>attackGrow</t>
+  </si>
+  <si>
+    <t>healthValue</t>
+  </si>
+  <si>
+    <t>healthGrow</t>
+  </si>
+  <si>
+    <t>defenseValue</t>
+  </si>
+  <si>
+    <t>defenseGrow</t>
+  </si>
+  <si>
+    <t>speedValue</t>
+  </si>
+  <si>
+    <t>critValue</t>
+  </si>
+  <si>
+    <t>α</t>
   </si>
   <si>
     <t>alpha</t>
@@ -1059,22 +1086,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="4" width="18.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="20.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="8" width="36.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="18.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="10.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="11.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="11.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,54 +1131,126 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>212</v>
+      </c>
+      <c r="J3">
+        <v>1.3</v>
+      </c>
+      <c r="K3">
+        <v>6000</v>
+      </c>
+      <c r="L3">
+        <v>1.1</v>
+      </c>
+      <c r="M3">
+        <v>502</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>66</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1154,22 +1258,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/RolesInfo.xlsx
+++ b/ExcelFiles/RolesInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>int</t>
   </si>
@@ -43,6 +43,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>roleDescribe</t>
   </si>
   <si>
+    <t>mainColor</t>
+  </si>
+  <si>
     <t>attackValue</t>
   </si>
   <si>
@@ -91,6 +97,24 @@
     <t>critValue</t>
   </si>
   <si>
+    <t>ultimateSkillEnery</t>
+  </si>
+  <si>
+    <t>ultimateSkillEneryRegainPS</t>
+  </si>
+  <si>
+    <t>ultimateSkillEneryRegainHit</t>
+  </si>
+  <si>
+    <t>colliderBoxOnStand</t>
+  </si>
+  <si>
+    <t>colliderBoxOnLie</t>
+  </si>
+  <si>
+    <t>effectsData</t>
+  </si>
+  <si>
     <t>α</t>
   </si>
   <si>
@@ -104,6 +128,26 @@
   </si>
   <si>
     <t>华丽的技能衔接令人应接不暇，超凡的爆发伤害往往能将敌人瞬间击溃</t>
+  </si>
+  <si>
+    <t>495CFF</t>
+  </si>
+  <si>
+    <t>-0.12:-0.13:1.56:3.4</t>
+  </si>
+  <si>
+    <t>0:-1.08:3.78:1.51</t>
+  </si>
+  <si>
+    <t>{
+    "shadow":{
+        "_Shadow_Alpha":0.8,
+        "_Shadow_OffsetX":-0.175,
+        "_Shadow_OffsetY":-0.41,
+        "_Shadow_Slope":-0.5,
+        "_Shadow_ScaleY":0.68
+    }
+}</t>
   </si>
   <si>
     <t>比安卡</t>
@@ -734,9 +778,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1100,13 +1150,19 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="25.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="18.2222222222222" customWidth="1"/>
-    <col min="10" max="10" width="10.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="11.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="11.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="10.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="10.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="11.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="10.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="11.8888888888889" customWidth="1"/>
+    <col min="19" max="19" width="28.2222222222222" customWidth="1"/>
+    <col min="20" max="20" width="31.4444444444444" customWidth="1"/>
+    <col min="21" max="21" width="19.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="22.5555555555556" customWidth="1"/>
+    <col min="23" max="23" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,125 +1188,188 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" ht="79" customHeight="1" spans="1:23">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
         <v>212</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.3</v>
       </c>
-      <c r="K3">
-        <v>6000</v>
-      </c>
       <c r="L3">
+        <v>100000</v>
+      </c>
+      <c r="M3">
         <v>1.1</v>
       </c>
-      <c r="M3">
-        <v>502</v>
-      </c>
       <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>66</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>30</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>0.65</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1258,22 +1377,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
